--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>260939.0732080095</v>
+        <v>258515.4666606677</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.0432329278044</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51.05518749467765</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>298.7548541693655</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>322.6582435445177</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.39284087534934</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>87.93270968653133</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>302.9446243547902</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>23.34416082770901</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.999469165707</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>66.62774187000171</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>25.42854495127493</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>92.72329049755638</v>
+        <v>93.5267620887755</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>153.3779859169653</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>155.5598945400494</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.72478271172073</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>170.8079800483196</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>121.2558461704938</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229241</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.0949745400652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,13 +2293,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>60.11729550773659</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>74.99129529219111</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>71.79687029690999</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>72.60410776434607</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>74.99129529219111</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,7 +3199,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3430,13 +3430,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>35.41770597126623</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>111.5512144998715</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.207802455916</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1267.329179342823</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="C2" t="n">
-        <v>898.3666624024113</v>
+        <v>1133.347320219774</v>
       </c>
       <c r="D2" t="n">
-        <v>540.1009637956608</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E2" t="n">
-        <v>540.1009637956608</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>129.1150590060532</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>118.0830128914538</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2770.302764913951</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2417.534109643836</v>
+        <v>2209.117292201923</v>
       </c>
       <c r="X2" t="n">
-        <v>2044.068351382756</v>
+        <v>1835.651533940843</v>
       </c>
       <c r="Y2" t="n">
-        <v>1653.929019406945</v>
+        <v>1445.512201965031</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.411984886741</v>
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.17155165980901</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>93.17155165980901</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>832.0660869429007</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U4" t="n">
-        <v>541.9536817013565</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V4" t="n">
-        <v>541.9536817013565</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W4" t="n">
-        <v>541.9536817013565</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>313.9641308033391</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>93.17155165980901</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1685.375546116517</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C5" t="n">
-        <v>1316.413029176106</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>958.1473305693551</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>958.1473305693551</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>547.1614257797476</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>132.088975624744</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,7 +4583,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,10 +4647,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,31 +4662,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
         <v>1109.759191501176</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.8128657958215</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>133.8128657958215</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>133.8128657958215</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>133.8128657958215</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>133.8128657958215</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>133.8128657958215</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>609.2899331452385</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>609.2899331452385</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="V7" t="n">
-        <v>354.6054449393516</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>354.6054449393516</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>354.6054449393516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.8128657958215</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796256</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796256</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881545</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
         <v>828.1105664881545</v>
@@ -4811,10 +4811,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4838,16 +4838,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
         <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986302</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.4459618444147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>518.4459618444147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>368.3293224320789</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>368.3293224320789</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>221.4393749341686</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4960,52 +4960,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>541.9891837816004</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746544</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.043492616111</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>448.8628671920299</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C13" t="n">
-        <v>279.926684264123</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D13" t="n">
-        <v>279.926684264123</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E13" t="n">
-        <v>279.926684264123</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797189</v>
@@ -5224,25 +5224,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T13" t="n">
-        <v>1220.954076332895</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U13" t="n">
-        <v>1220.954076332895</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="V13" t="n">
-        <v>966.2695881270078</v>
+        <v>494.3395271261101</v>
       </c>
       <c r="W13" t="n">
-        <v>676.8524180900472</v>
+        <v>494.3395271261101</v>
       </c>
       <c r="X13" t="n">
-        <v>448.8628671920299</v>
+        <v>266.3499762280927</v>
       </c>
       <c r="Y13" t="n">
-        <v>448.8628671920299</v>
+        <v>93.81666304797189</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075823</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958744</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>680.4481746984059</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860701</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>382.418441703677</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267662</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261141</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,34 +5495,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>408.925855915485</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,43 +5741,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +5999,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>481.447947124485</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E28" t="n">
-        <v>333.5348535420919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L30" t="n">
-        <v>867.8220324314351</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1465.200520057987</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2334.285089135946</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7649,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>73.69060873567614</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>243.5525768926428</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>122.222632142863</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>126.6962653112105</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671011977</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>47.77667330377517</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>45.99097492813404</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.73700564187206</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>226.0671788815075</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>73.62417772602124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>73.62417772602126</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393025</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>73.62417772602124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>110.003342051665</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>69.47507150177309</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.62417772602126</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1063929.234757304</v>
+        <v>1063929.234757303</v>
       </c>
     </row>
     <row r="13">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>346678.4959438571</v>
+        <v>346678.4959438573</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389276</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="E2" t="n">
-        <v>352455.4604185488</v>
+        <v>352455.4604185486</v>
       </c>
       <c r="F2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="G2" t="n">
         <v>363215.9698605026</v>
@@ -26332,25 +26332,25 @@
         <v>363215.9698605027</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605024</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="K2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="L2" t="n">
-        <v>363215.9698605029</v>
+        <v>363215.9698605025</v>
       </c>
       <c r="M2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="N2" t="n">
         <v>363215.9698605025</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>363215.9698605026</v>
-      </c>
-      <c r="O2" t="n">
-        <v>363215.9698605028</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605026</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64690.18151540501</v>
+        <v>64690.18151540495</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>761.3882086835454</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687962</v>
       </c>
       <c r="K4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="N4" t="n">
-        <v>15436.64000687973</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1154690.371860534</v>
+        <v>-1154816.984641062</v>
       </c>
       <c r="C6" t="n">
-        <v>167938.111773482</v>
+        <v>167938.1117734817</v>
       </c>
       <c r="D6" t="n">
-        <v>167938.1117734819</v>
+        <v>167938.1117734816</v>
       </c>
       <c r="E6" t="n">
-        <v>-74840.91942139764</v>
+        <v>-74935.43795484408</v>
       </c>
       <c r="F6" t="n">
-        <v>246656.8000297158</v>
+        <v>246622.0621042802</v>
       </c>
       <c r="G6" t="n">
-        <v>246656.8000297163</v>
+        <v>246622.0621042801</v>
       </c>
       <c r="H6" t="n">
-        <v>246656.800029716</v>
+        <v>246622.0621042803</v>
       </c>
       <c r="I6" t="n">
-        <v>246656.800029716</v>
+        <v>246622.0621042797</v>
       </c>
       <c r="J6" t="n">
-        <v>29125.59763243842</v>
+        <v>29090.85970700264</v>
       </c>
       <c r="K6" t="n">
-        <v>246656.8000297159</v>
+        <v>246622.0621042802</v>
       </c>
       <c r="L6" t="n">
-        <v>246656.800029716</v>
+        <v>246622.0621042802</v>
       </c>
       <c r="M6" t="n">
-        <v>161601.7720942038</v>
+        <v>161567.0341687682</v>
       </c>
       <c r="N6" t="n">
-        <v>246656.8000297157</v>
+        <v>246622.06210428</v>
       </c>
       <c r="O6" t="n">
-        <v>246656.800029716</v>
+        <v>246622.0621042799</v>
       </c>
       <c r="P6" t="n">
-        <v>246656.8000297158</v>
+        <v>246622.0621042803</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>28.9974043007694</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>26.58272517289527</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>62.32826741621739</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>271.2636035596115</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>78.12727304431907</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27828,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>226.7090983725531</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>261.9597511231266</v>
+        <v>261.1562795319074</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>12.64782234206294</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>130.6519436655635</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>7.164165557090503e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-2.556569233283702e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32078,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>361.7519118779082</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>359.1374415194863</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,16 +32549,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>342.8454457931495</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>151.9914336104071</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L30" t="n">
-        <v>430.1367711736326</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500301</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,16 +33980,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>276.96469254416</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890169</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34451,10 +34451,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>253.1045048722855</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>529.7947616033042</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023008</v>
       </c>
       <c r="K13" t="n">
         <v>157.5888220649825</v>
@@ -35574,19 +35574,19 @@
         <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915995</v>
       </c>
       <c r="N13" t="n">
         <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401631</v>
+        <v>210.220233340163</v>
       </c>
       <c r="P13" t="n">
         <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214692</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>219.1556674334638</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>219.1556674334648</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,16 +36197,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>205.0040068187905</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>20.64972152707382</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L30" t="n">
-        <v>291.5823913937584</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280117</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,16 +37628,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>150.1270658774933</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914269</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>114.5501250924114</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
